--- a/物語目録.xlsx
+++ b/物語目録.xlsx
@@ -5,197 +5,151 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\0Create\小説\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0Create\Programing\python\exercise\studying_pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0600123-FD6A-4220-B272-2FF04C712F7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC6F9B-5426-4B87-A6F5-8410734BCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{3784468E-8357-4B16-BCD6-26C4EB26634E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SF" sheetId="3" r:id="rId1"/>
-    <sheet name="ファンタジー" sheetId="1" r:id="rId2"/>
-    <sheet name="現代もの" sheetId="2" r:id="rId3"/>
+    <sheet name="SF" sheetId="1" r:id="rId1"/>
+    <sheet name="ファンタジー" sheetId="2" r:id="rId2"/>
+    <sheet name="現代もの" sheetId="3" r:id="rId3"/>
     <sheet name="アクションサスペンス" sheetId="4" r:id="rId4"/>
     <sheet name="神話伝承" sheetId="5" r:id="rId5"/>
+    <sheet name="まとめ" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+  <si>
+    <t>機械人間 </t>
+  </si>
+  <si>
+    <t>防衛軍</t>
+  </si>
+  <si>
+    <t>時間</t>
+  </si>
+  <si>
+    <t>宇宙</t>
+  </si>
   <si>
     <t>SURVIVOR</t>
   </si>
   <si>
+    <t>ゲートキーパーズ</t>
+  </si>
+  <si>
+    <t>ヴァレインファンク</t>
+  </si>
+  <si>
+    <t>ハイパースペースオペラ</t>
+  </si>
+  <si>
     <t>人魅</t>
   </si>
   <si>
+    <t>PSYCHO MASTERS</t>
+  </si>
+  <si>
+    <t>タイムリミット</t>
+  </si>
+  <si>
+    <t>バトルマンズ</t>
+  </si>
+  <si>
     <t>太陽の鍵</t>
   </si>
   <si>
-    <t>ゲートキーパーズ</t>
-  </si>
-  <si>
-    <t>PSYCHO MASTERS</t>
-  </si>
-  <si>
-    <t>ヴァレインファンク</t>
-  </si>
-  <si>
-    <t>タイムリミット</t>
-  </si>
-  <si>
-    <t>ハイパースペースオペラ</t>
-  </si>
-  <si>
-    <t>バトルマンズ</t>
-  </si>
-  <si>
     <t>剣 </t>
   </si>
   <si>
+    <t>魔法</t>
+  </si>
+  <si>
+    <t>異世界</t>
+  </si>
+  <si>
+    <t>鬼</t>
+  </si>
+  <si>
     <t>クリスタルアイズ</t>
   </si>
   <si>
+    <t>アルカナ</t>
+  </si>
+  <si>
+    <t>ティカラ</t>
+  </si>
+  <si>
+    <t>リアル小説家</t>
+  </si>
+  <si>
     <t>ダンテ</t>
   </si>
   <si>
+    <t>鋼の人形</t>
+  </si>
+  <si>
+    <t>ドラグーン</t>
+  </si>
+  <si>
+    <t>鬼殺し</t>
+  </si>
+  <si>
     <t>とりかえばや</t>
   </si>
   <si>
+    <t>青い鳥</t>
+  </si>
+  <si>
+    <t>ドラゴンブレイド</t>
+  </si>
+  <si>
+    <t>紅毛碧眼</t>
+  </si>
+  <si>
     <t>モレノ</t>
   </si>
   <si>
+    <t>魔法学園</t>
+  </si>
+  <si>
+    <t>鳥となれ</t>
+  </si>
+  <si>
+    <t>姫さらい</t>
+  </si>
+  <si>
     <t>狂戦士</t>
   </si>
   <si>
+    <t>翼の人</t>
+  </si>
+  <si>
+    <t>夢物語 </t>
+  </si>
+  <si>
+    <t>夜のモノ達</t>
+  </si>
+  <si>
     <t>覇邪水戦記</t>
   </si>
   <si>
-    <t>魔法</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アルカナ</t>
-  </si>
-  <si>
-    <t>鋼の人形</t>
-  </si>
-  <si>
-    <t>青い鳥</t>
-  </si>
-  <si>
-    <t>魔法学園</t>
-  </si>
-  <si>
-    <t>翼の人</t>
-  </si>
-  <si>
-    <t>異世界</t>
-  </si>
-  <si>
-    <t>ティカラ</t>
-  </si>
-  <si>
-    <t>ドラグーン</t>
-  </si>
-  <si>
-    <t>ドラゴンブレイド</t>
-  </si>
-  <si>
-    <t>鳥となれ</t>
-  </si>
-  <si>
-    <r>
-      <t>夢物語</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-  </si>
-  <si>
-    <t>鬼</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リアル小説家</t>
-  </si>
-  <si>
-    <t>鬼殺し</t>
-  </si>
-  <si>
-    <t>紅毛碧眼</t>
-  </si>
-  <si>
-    <t>姫さらい</t>
-  </si>
-  <si>
-    <t>夜のモノ達</t>
-  </si>
-  <si>
     <t>夜叉影</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF333333"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>機械人間</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF333333"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>防衛軍</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>時間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>宇宙</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>現代もの</t>
   </si>
   <si>
+    <t>ひらけゴマ</t>
+  </si>
+  <si>
     <t>レトロフィット</t>
   </si>
   <si>
@@ -205,51 +159,43 @@
     <t>勝利のう゛ぃ</t>
   </si>
   <si>
-    <t>ひらけゴマ</t>
-    <phoneticPr fontId="1"/>
+    <t>アクション</t>
+  </si>
+  <si>
+    <t>サスペンス</t>
   </si>
   <si>
     <t>イクサ</t>
   </si>
   <si>
+    <t>とりとりとり</t>
+  </si>
+  <si>
     <t>カイゼンちゃん</t>
   </si>
   <si>
+    <t>五人同盟</t>
+  </si>
+  <si>
     <t>ハチャメチャドリーミングストーリーズ</t>
   </si>
   <si>
+    <t>東奔西走</t>
+  </si>
+  <si>
     <t>ハワイアン</t>
   </si>
   <si>
+    <t>政府の犬</t>
+  </si>
+  <si>
     <t>格闘ゲーム</t>
   </si>
   <si>
-    <t>アクション</t>
-  </si>
-  <si>
-    <t>サスペンス</t>
-  </si>
-  <si>
-    <t>とりとりとり</t>
-  </si>
-  <si>
-    <t>五人同盟</t>
-  </si>
-  <si>
-    <t>東奔西走</t>
-  </si>
-  <si>
-    <t>政府の犬</t>
-  </si>
-  <si>
     <t>暖かな陽だまり</t>
   </si>
   <si>
     <t>神話伝承</t>
-    <rPh sb="0" eb="4">
-      <t>シンワデンショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -295,18 +241,16 @@
       <charset val="128"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -319,7 +263,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -327,17 +271,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,17 +305,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -672,7 +635,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7E1A5E-BD69-4703-876F-59A7C8636D87}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -681,35 +644,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1"/>
-    <col min="2" max="2" width="30.25" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
-    <col min="4" max="4" width="39.625" customWidth="1"/>
+    <col min="1" max="1" width="24.875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="30.25" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="7" customWidth="1"/>
+    <col min="4" max="4" width="39.625" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -717,41 +680,41 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://kitakazex.web.fc2.com/sf/survivor/index.html" xr:uid="{E72D32E3-78DD-40D7-BC75-ACBE02C56644}"/>
-    <hyperlink ref="A3" r:id="rId2" display="https://kitakazex.web.fc2.com/sf/hitomi/index.html" xr:uid="{30C73E85-B5A5-45BF-A1AA-6558BDED30D7}"/>
-    <hyperlink ref="A4" r:id="rId3" display="https://kitakazex.web.fc2.com/sf/taiyou/index.html" xr:uid="{9EC1A0F9-E32B-4281-85B3-6A80B2AA5D52}"/>
-    <hyperlink ref="B2" r:id="rId4" display="https://kitakazex.web.fc2.com/sf/gate/index.html" xr:uid="{7CA5F13F-B01E-4512-AF5B-08CD0CC7EBD5}"/>
-    <hyperlink ref="B3" r:id="rId5" display="https://kitakazex.web.fc2.com/sf/psycho/index.html" xr:uid="{A98B5A45-73C3-44BD-961E-80C89141F6C3}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://kitakazex.web.fc2.com/sf/varein/index.html" xr:uid="{ADE76180-8C78-4B83-83C0-AE6BE69E3391}"/>
-    <hyperlink ref="C3" r:id="rId7" display="https://kitakazex.web.fc2.com/sf/time/index.html" xr:uid="{F4E86EDB-58F9-4C2C-A741-7A9F707AF263}"/>
-    <hyperlink ref="D2" r:id="rId8" display="https://kitakazex.web.fc2.com/sf/hyper/index.html" xr:uid="{629E2583-FE39-459C-8AD0-589555AF4CFB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://kitakazex.web.fc2.com/sf/survivor/index.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://kitakazex.web.fc2.com/sf/gate/index.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C2" r:id="rId3" display="https://kitakazex.web.fc2.com/sf/varein/index.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D2" r:id="rId4" display="https://kitakazex.web.fc2.com/sf/hyper/index.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="A3" r:id="rId5" display="https://kitakazex.web.fc2.com/sf/hitomi/index.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B3" r:id="rId6" display="https://kitakazex.web.fc2.com/sf/psycho/index.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C3" r:id="rId7" display="https://kitakazex.web.fc2.com/sf/time/index.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="A4" r:id="rId8" display="https://kitakazex.web.fc2.com/sf/taiyou/index.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BA4E09-8F90-427E-9B51-5EA0ED728E78}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -760,74 +723,74 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="4" width="19.75" customWidth="1"/>
+    <col min="1" max="4" width="19.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>32</v>
@@ -835,54 +798,54 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://kitakazex.web.fc2.com/fantasy/crystal/index.html" xr:uid="{81828E60-356F-46BA-A3C7-6FBD16439B2D}"/>
-    <hyperlink ref="A4" r:id="rId2" display="https://kitakazex.web.fc2.com/fantasy/torikae/index.html" xr:uid="{F7323806-1310-4D3B-9B03-871AB66BD3F9}"/>
-    <hyperlink ref="A7" r:id="rId3" display="https://kitakazex.web.fc2.com/fantasy/haja/index.html" xr:uid="{29033865-5451-48EF-A468-E5E0B1E956F0}"/>
-    <hyperlink ref="B4" r:id="rId4" display="https://kitakazex.web.fc2.com/fantasy/aoi/index.html" xr:uid="{87E986AB-7090-4CC9-970A-51EF27003437}"/>
-    <hyperlink ref="B5" r:id="rId5" display="https://kitakazex.web.fc2.com/fantasy/maho/index.html" xr:uid="{8803495D-BEF1-4CA0-A632-71017D09D5EC}"/>
-    <hyperlink ref="C2" r:id="rId6" display="https://kitakazex.web.fc2.com/fantasy/thikara/index.html" xr:uid="{04439D9B-5BCD-41EE-98F1-7492CF9E66F0}"/>
-    <hyperlink ref="C4" r:id="rId7" display="https://kitakazex.web.fc2.com/fantasy/dragon/index.html" xr:uid="{98C3B520-0B20-4C23-8BB4-965B6D284C80}"/>
-    <hyperlink ref="C5" r:id="rId8" display="https://kitakazex.web.fc2.com/fantasy/torito/index.html" xr:uid="{5B2DFFFD-E526-42EA-B579-53CCAE84DC27}"/>
-    <hyperlink ref="C6" r:id="rId9" display="https://kitakazex.web.fc2.com/fantasy/yume/index.html" xr:uid="{4CB99EDB-F04A-4918-AF33-D119620DB9DE}"/>
-    <hyperlink ref="D3" r:id="rId10" display="https://kitakazex.web.fc2.com/fantasy/oni/index.html" xr:uid="{ECD452D6-73E6-4961-BA9D-7D74A832E0D3}"/>
-    <hyperlink ref="D6" r:id="rId11" display="https://kitakazex.web.fc2.com/fantasy/yorunomono/index.html" xr:uid="{1B6E18A7-7046-43AA-AEC3-7DDCF1CDAE21}"/>
+    <hyperlink ref="A2" r:id="rId1" display="https://kitakazex.web.fc2.com/fantasy/crystal/index.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://kitakazex.web.fc2.com/fantasy/thikara/index.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://kitakazex.web.fc2.com/fantasy/oni/index.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://kitakazex.web.fc2.com/fantasy/torikae/index.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://kitakazex.web.fc2.com/fantasy/aoi/index.html" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://kitakazex.web.fc2.com/fantasy/dragon/index.html" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" display="https://kitakazex.web.fc2.com/fantasy/maho/index.html" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" display="https://kitakazex.web.fc2.com/fantasy/torito/index.html" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://kitakazex.web.fc2.com/fantasy/yume/index.html" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" display="https://kitakazex.web.fc2.com/fantasy/yorunomono/index.html" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" display="https://kitakazex.web.fc2.com/fantasy/haja/index.html" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67D8C5B4-68D2-4129-A6E4-A474C2CA7A5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="26.75" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
@@ -892,35 +855,35 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" s="6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" display="https://kitakazex.web.fc2.com/gendai/sippu/index.html" xr:uid="{A6045F2F-D83C-438E-8511-C60CA9AB55E0}"/>
+    <hyperlink ref="A4" r:id="rId1" display="https://kitakazex.web.fc2.com/gendai/sippu/index.html" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0515A71-6177-461D-90A5-7E71A68EB210}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -929,53 +892,53 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="62.375" customWidth="1"/>
-    <col min="2" max="2" width="38.125" customWidth="1"/>
+    <col min="1" max="1" width="62.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="38.125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>55</v>
@@ -984,17 +947,17 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" display="https://kitakazex.web.fc2.com/action/inu/index.html" xr:uid="{1C294F62-B9F6-4B89-8015-084630E0D662}"/>
+    <hyperlink ref="B5" r:id="rId1" display="https://kitakazex.web.fc2.com/action/inu/index.html" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{068BA001-D165-4428-95ED-226E0F018338}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1009,4 +972,281 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="8">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="8">
+        <v>5</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="8">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A8" s="8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="8">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="8">
+        <v>9</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="8">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="8">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="8">
+        <v>13</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="8">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s">
+        <v>46</v>
+      </c>
+      <c r="L15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="8">
+        <v>15</v>
+      </c>
+      <c r="K16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="8">
+        <v>16</v>
+      </c>
+      <c r="K17" t="s">
+        <v>50</v>
+      </c>
+      <c r="L17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A18" s="8">
+        <v>17</v>
+      </c>
+      <c r="K18" t="s">
+        <v>52</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A19" s="8">
+        <v>18</v>
+      </c>
+      <c r="K19" t="s">
+        <v>54</v>
+      </c>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/物語目録.xlsx
+++ b/物語目録.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0Create\Programing\python\exercise\studying_pandas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52AC6F9B-5426-4B87-A6F5-8410734BCA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83865D62-B591-4A9D-BFA8-1944DFD1512D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7140" yWindow="3885" windowWidth="16020" windowHeight="11295" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SF" sheetId="1" r:id="rId1"/>
-    <sheet name="ファンタジー" sheetId="2" r:id="rId2"/>
+    <sheet name="ファンタジー" sheetId="2" r:id="rId1"/>
+    <sheet name="SF" sheetId="1" r:id="rId2"/>
     <sheet name="現代もの" sheetId="3" r:id="rId3"/>
     <sheet name="アクションサスペンス" sheetId="4" r:id="rId4"/>
     <sheet name="神話伝承" sheetId="5" r:id="rId5"/>
     <sheet name="まとめ" sheetId="6" r:id="rId6"/>
+    <sheet name="並べ替え" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>機械人間 </t>
   </si>
@@ -202,7 +203,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -254,6 +255,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -263,12 +271,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -295,7 +318,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -319,6 +342,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -635,6 +661,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="4" width="19.75" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="https://kitakazex.web.fc2.com/fantasy/crystal/index.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="https://kitakazex.web.fc2.com/fantasy/thikara/index.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D3" r:id="rId3" display="https://kitakazex.web.fc2.com/fantasy/oni/index.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A4" r:id="rId4" display="https://kitakazex.web.fc2.com/fantasy/torikae/index.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="B4" r:id="rId5" display="https://kitakazex.web.fc2.com/fantasy/aoi/index.html" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="C4" r:id="rId6" display="https://kitakazex.web.fc2.com/fantasy/dragon/index.html" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="B5" r:id="rId7" display="https://kitakazex.web.fc2.com/fantasy/maho/index.html" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="C5" r:id="rId8" display="https://kitakazex.web.fc2.com/fantasy/torito/index.html" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="C6" r:id="rId9" display="https://kitakazex.web.fc2.com/fantasy/yume/index.html" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D6" r:id="rId10" display="https://kitakazex.web.fc2.com/fantasy/yorunomono/index.html" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="A7" r:id="rId11" display="https://kitakazex.web.fc2.com/fantasy/haja/index.html" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -708,130 +858,6 @@
     <hyperlink ref="B3" r:id="rId6" display="https://kitakazex.web.fc2.com/sf/psycho/index.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
     <hyperlink ref="C3" r:id="rId7" display="https://kitakazex.web.fc2.com/sf/time/index.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
     <hyperlink ref="A4" r:id="rId8" display="https://kitakazex.web.fc2.com/sf/taiyou/index.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="4" width="19.75" style="7" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="https://kitakazex.web.fc2.com/fantasy/crystal/index.html" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" display="https://kitakazex.web.fc2.com/fantasy/thikara/index.html" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D3" r:id="rId3" display="https://kitakazex.web.fc2.com/fantasy/oni/index.html" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A4" r:id="rId4" display="https://kitakazex.web.fc2.com/fantasy/torikae/index.html" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="B4" r:id="rId5" display="https://kitakazex.web.fc2.com/fantasy/aoi/index.html" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="C4" r:id="rId6" display="https://kitakazex.web.fc2.com/fantasy/dragon/index.html" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="B5" r:id="rId7" display="https://kitakazex.web.fc2.com/fantasy/maho/index.html" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="C5" r:id="rId8" display="https://kitakazex.web.fc2.com/fantasy/torito/index.html" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="C6" r:id="rId9" display="https://kitakazex.web.fc2.com/fantasy/yume/index.html" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D6" r:id="rId10" display="https://kitakazex.web.fc2.com/fantasy/yorunomono/index.html" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="A7" r:id="rId11" display="https://kitakazex.web.fc2.com/fantasy/haja/index.html" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1249,4 +1275,74 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="9">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="9">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>